--- a/public/template_xls/template_vendor.xlsx
+++ b/public/template_xls/template_vendor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankbtn-my.sharepoint.com/personal/ivan20057_btn_co_id/Documents/Documents/IES Portal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan20057\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="8_{E4EF04D0-9D9C-46D9-B554-F86F215F04D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA42B2E7-53EA-4AC9-B4E8-B3D6B902C385}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4EC536-1D6D-40CA-80E0-956FE5CBEBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F36BE757-7840-428F-B9FD-226C1B34BFAA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Nama Vendor</t>
   </si>
@@ -62,22 +62,10 @@
     <t>Helpdesk Phone</t>
   </si>
   <si>
-    <t>Scope of Work</t>
-  </si>
-  <si>
-    <t>Nilai Kontrak</t>
-  </si>
-  <si>
-    <t>Tempo Pembayaran</t>
-  </si>
-  <si>
     <t>Ahmad</t>
   </si>
   <si>
     <t>Daniel</t>
-  </si>
-  <si>
-    <t>Maintenance dan perbaikan</t>
   </si>
   <si>
     <t>085216313112</t>
@@ -102,9 +90,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,13 +133,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,10 +153,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270B27F8-6628-4531-966A-4408389C0925}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,19 +468,16 @@
     <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -519,49 +495,31 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2">
-        <v>2000000000</v>
-      </c>
-      <c r="K2" s="3">
-        <v>46808</v>
       </c>
     </row>
   </sheetData>

--- a/public/template_xls/template_vendor.xlsx
+++ b/public/template_xls/template_vendor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan20057\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankbtn-my.sharepoint.com/personal/ivan20057_btn_co_id/Documents/Documents/IES Portal/template_xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4EC536-1D6D-40CA-80E0-956FE5CBEBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{4A4EC536-1D6D-40CA-80E0-956FE5CBEBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E64A5F62-695E-45B8-BB3B-8C33035ED93C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F36BE757-7840-428F-B9FD-226C1B34BFAA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Nama Vendor</t>
   </si>
@@ -84,13 +84,41 @@
   </si>
   <si>
     <t>Vendor1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*Note : 
+- Kolom isian tidak boleh kosong
+- Pastikan seluruh kolom yang kosong </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dihapus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, dengan cara blok kolom yang kosong kemudian klik kanan -&gt; pilih delete  -&gt; ok</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +136,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,11 +176,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,13 +505,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270B27F8-6628-4531-966A-4408389C0925}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
@@ -468,9 +521,11 @@
     <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -495,8 +550,11 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>

--- a/public/template_xls/template_vendor.xlsx
+++ b/public/template_xls/template_vendor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankbtn-my.sharepoint.com/personal/ivan20057_btn_co_id/Documents/Documents/IES Portal/template_xls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\template_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{4A4EC536-1D6D-40CA-80E0-956FE5CBEBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E64A5F62-695E-45B8-BB3B-8C33035ED93C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FE4B17-CD25-4771-9F68-4E1CF7CF079A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F36BE757-7840-428F-B9FD-226C1B34BFAA}"/>
   </bookViews>
@@ -62,16 +62,7 @@
     <t>Helpdesk Phone</t>
   </si>
   <si>
-    <t>Ahmad</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
     <t>085216313112</t>
-  </si>
-  <si>
-    <t>Joko</t>
   </si>
   <si>
     <t>085522221111</t>
@@ -112,6 +103,15 @@
       </rPr>
       <t>, dengan cara blok kolom yang kosong kemudian klik kanan -&gt; pilih delete  -&gt; ok</t>
     </r>
+  </si>
+  <si>
+    <t>PIC Contoh</t>
+  </si>
+  <si>
+    <t>AM Contoh</t>
+  </si>
+  <si>
+    <t>Helpdesk Contoh</t>
   </si>
 </sst>
 </file>
@@ -551,33 +551,33 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
